--- a/colbert/output/Results_colbert_max_ingredients_extraQuestions.xlsx
+++ b/colbert/output/Results_colbert_max_ingredients_extraQuestions.xlsx
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>109439</v>
+        <v>84797</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>berry  good sandwich spread</t>
+          <t>love is in the air  beef fondue   sauces</t>
         </is>
       </c>
     </row>
@@ -1027,11 +1027,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>84797</v>
+        <v>109439</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>love is in the air  beef fondue   sauces</t>
+          <t>berry  good sandwich spread</t>
         </is>
       </c>
     </row>
@@ -1052,11 +1052,11 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62368</v>
+        <v>42522</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the man s  taco dip</t>
         </is>
       </c>
     </row>
@@ -1077,11 +1077,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42522</v>
+        <v>62368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>the man s  taco dip</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -3577,11 +3577,11 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>47366</v>
+        <v>38276</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -4752,11 +4752,11 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>39363</v>
+        <v>62368</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -4777,11 +4777,11 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>62368</v>
+        <v>39363</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -5452,11 +5452,11 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>42570</v>
+        <v>41756</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -6027,11 +6027,11 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>59952</v>
+        <v>112140</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -6152,11 +6152,11 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>87098</v>
+        <v>44045</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>homemade  vegetable soup from a can</t>
+          <t>mennonite  corn fritters</t>
         </is>
       </c>
     </row>
@@ -6177,11 +6177,11 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>44045</v>
+        <v>87098</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>mennonite  corn fritters</t>
+          <t>homemade  vegetable soup from a can</t>
         </is>
       </c>
     </row>
@@ -6202,11 +6202,11 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>39959</v>
+        <v>112140</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>calm your nerves  tonic</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>25274</v>
+        <v>23933</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>chinese  candy</t>
         </is>
       </c>
     </row>
@@ -7377,11 +7377,11 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>58224</v>
+        <v>112140</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -7452,11 +7452,11 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>33606</v>
+        <v>58224</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>italian sandwich  pasta salad</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -7927,11 +7927,11 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>52804</v>
+        <v>74805</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>never weep  whipped cream</t>
         </is>
       </c>
     </row>
@@ -7952,11 +7952,11 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>74805</v>
+        <v>52804</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>never weep  whipped cream</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -8502,11 +8502,11 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>39363</v>
+        <v>75452</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -8527,11 +8527,11 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>75452</v>
+        <v>83062</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>beat this  banana bread</t>
+          <t>spicy  banana bread</t>
         </is>
       </c>
     </row>
@@ -8552,11 +8552,11 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>95926</v>
+        <v>39363</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>say what   banana sandwich</t>
+          <t>the best  banana bread  or muffins</t>
         </is>
       </c>
     </row>
@@ -8577,11 +8577,11 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>83062</v>
+        <v>95926</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>spicy  banana bread</t>
+          <t>say what   banana sandwich</t>
         </is>
       </c>
     </row>
@@ -10427,11 +10427,11 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>44123</v>
+        <v>59952</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>george s at the cove  black bean soup</t>
+          <t>global gourmet  taco casserole</t>
         </is>
       </c>
     </row>
@@ -10452,11 +10452,11 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>59952</v>
+        <v>44123</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>global gourmet  taco casserole</t>
+          <t>george s at the cove  black bean soup</t>
         </is>
       </c>
     </row>
@@ -11627,11 +11627,11 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>8559</v>
+        <v>38276</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>chinese  chop suey</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -11677,11 +11677,11 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>64045</v>
+        <v>67888</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>some like it hot</t>
+          <t>backyard style  barbecued ribs</t>
         </is>
       </c>
     </row>
@@ -11702,11 +11702,11 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>67888</v>
+        <v>64045</v>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>backyard style  barbecued ribs</t>
+          <t>some like it hot</t>
         </is>
       </c>
     </row>
@@ -12252,11 +12252,11 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>58224</v>
+        <v>42570</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>immoral  sandwich filling  loose meat</t>
+          <t>pick me up  party chicken kabobs</t>
         </is>
       </c>
     </row>
@@ -12277,11 +12277,11 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>42570</v>
+        <v>58224</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>pick me up  party chicken kabobs</t>
+          <t>immoral  sandwich filling  loose meat</t>
         </is>
       </c>
     </row>
@@ -14302,11 +14302,11 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>25274</v>
+        <v>30131</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>aww  marinated olives</t>
+          <t>momma s special  marinade</t>
         </is>
       </c>
     </row>
@@ -14327,11 +14327,11 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>30131</v>
+        <v>93249</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>momma s special  marinade</t>
+          <t>grilled  ranch bread</t>
         </is>
       </c>
     </row>
@@ -15377,11 +15377,11 @@
         </is>
       </c>
       <c r="D598" t="n">
-        <v>64302</v>
+        <v>83133</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>red  macaroni salad</t>
+          <t>stove top  bbq  beef or pork ribs</t>
         </is>
       </c>
     </row>
@@ -15402,11 +15402,11 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>83133</v>
+        <v>64302</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>stove top  bbq  beef or pork ribs</t>
+          <t>red  macaroni salad</t>
         </is>
       </c>
     </row>
@@ -17877,11 +17877,11 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>53402</v>
+        <v>32169</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>killer  lasagna</t>
+          <t>make that chicken dance  salsa pasta</t>
         </is>
       </c>
     </row>
@@ -17902,11 +17902,11 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>32169</v>
+        <v>53402</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>make that chicken dance  salsa pasta</t>
+          <t>killer  lasagna</t>
         </is>
       </c>
     </row>
@@ -17927,11 +17927,11 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>47366</v>
+        <v>94710</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>forgotten  minestrone</t>
+          <t>italian  fries</t>
         </is>
       </c>
     </row>
@@ -17952,11 +17952,11 @@
         </is>
       </c>
       <c r="D701" t="n">
-        <v>94710</v>
+        <v>47366</v>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>italian  fries</t>
+          <t>forgotten  minestrone</t>
         </is>
       </c>
     </row>
@@ -19752,11 +19752,11 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>112140</v>
+        <v>59534</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>all in the kitchen  chili</t>
+          <t>twisted american chop suey</t>
         </is>
       </c>
     </row>
@@ -19777,11 +19777,11 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>59534</v>
+        <v>41756</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
-          <t>twisted american chop suey</t>
+          <t>souper  easy sweet   sour meatballs</t>
         </is>
       </c>
     </row>
@@ -19802,11 +19802,11 @@
         </is>
       </c>
       <c r="D775" t="n">
-        <v>41756</v>
+        <v>112140</v>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>souper  easy sweet   sour meatballs</t>
+          <t>all in the kitchen  chili</t>
         </is>
       </c>
     </row>
@@ -21377,11 +21377,11 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>38798</v>
+        <v>52804</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>i can t believe it s spinach</t>
+          <t>jiffy  extra moist carrot cake</t>
         </is>
       </c>
     </row>
@@ -21402,11 +21402,11 @@
         </is>
       </c>
       <c r="D839" t="n">
-        <v>52804</v>
+        <v>26995</v>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>jiffy  extra moist carrot cake</t>
+          <t>keep it going  german friendship cake</t>
         </is>
       </c>
     </row>
@@ -21452,11 +21452,11 @@
         </is>
       </c>
       <c r="D841" t="n">
-        <v>26995</v>
+        <v>27087</v>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>keep it going  german friendship cake</t>
+          <t>get the sensation  brownies</t>
         </is>
       </c>
     </row>
@@ -21677,11 +21677,11 @@
         </is>
       </c>
       <c r="D850" t="n">
-        <v>93959</v>
+        <v>26835</v>
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>i yam what i yam two  muffins</t>
+          <t>one bowl  perfect pound cake</t>
         </is>
       </c>
     </row>
@@ -21702,11 +21702,11 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>26835</v>
+        <v>75452</v>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>one bowl  perfect pound cake</t>
+          <t>beat this  banana bread</t>
         </is>
       </c>
     </row>
@@ -24152,11 +24152,11 @@
         </is>
       </c>
       <c r="D949" t="n">
-        <v>35964</v>
+        <v>62368</v>
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>rich  hot fudge cake</t>
+          <t>the best  chocolate chip cheesecake ever</t>
         </is>
       </c>
     </row>
@@ -24177,11 +24177,11 @@
         </is>
       </c>
       <c r="D950" t="n">
-        <v>62368</v>
+        <v>38276</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
-          <t>the best  chocolate chip cheesecake ever</t>
+          <t>now and later  vegetarian empanadas</t>
         </is>
       </c>
     </row>
@@ -24202,11 +24202,11 @@
         </is>
       </c>
       <c r="D951" t="n">
-        <v>39363</v>
+        <v>35653</v>
       </c>
       <c r="E951" t="inlineStr">
         <is>
-          <t>the best  banana bread  or muffins</t>
+          <t>make it your way  shortcakes</t>
         </is>
       </c>
     </row>
